--- a/Fase 2/Evidencias Proyecto/compra vs facturacion interco.xlsx
+++ b/Fase 2/Evidencias Proyecto/compra vs facturacion interco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTOPHER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTOPHER\Dropbox\Pesonal\DUOC\8bo semestre\CAPSTONE\CAPSTONE-2026-2\Fase 2\Evidencias Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FE4010-4088-4695-B752-2446FEC0A148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB30AAC-F466-49D2-8953-11F650290109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ADE3DE36-B671-43A2-82DD-D4D4B061C073}"/>
   </bookViews>
@@ -25,9 +25,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="103" r:id="rId5"/>
-    <pivotCache cacheId="122" r:id="rId6"/>
-    <pivotCache cacheId="130" r:id="rId7"/>
+    <pivotCache cacheId="134" r:id="rId5"/>
+    <pivotCache cacheId="135" r:id="rId6"/>
+    <pivotCache cacheId="136" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1840,11 +1840,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1871,6 +1872,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1893,15 +1902,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -1909,368 +1921,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -10424,7 +10075,60 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DDE1272-9F04-49FC-8660-E0981C2EC33F}" name="TablaDinámica10" cacheId="130" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{366AD43D-663A-4303-98E1-9733A5D140D3}" name="TablaDinámica8" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Suma de Compra" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Suma de PEDIDOS" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Suma de FACTURACION" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6DDE1272-9F04-49FC-8660-E0981C2EC33F}" name="TablaDinámica10" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="F3:I5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10476,8 +10180,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74D822D5-8529-4D8A-A166-61DD6469B62F}" name="TablaDinámica9" cacheId="122" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74D822D5-8529-4D8A-A166-61DD6469B62F}" name="TablaDinámica9" cacheId="135" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A13:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -10515,59 +10219,6 @@
     <dataField name="Suma de Compra" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Suma de PEDIDOS" fld="8" baseField="0" baseItem="0"/>
     <dataField name="Suma de FACTURACION" fld="9" baseField="0" baseItem="2"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{366AD43D-663A-4303-98E1-9733A5D140D3}" name="TablaDinámica8" cacheId="103" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Suma de Compra" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Suma de PEDIDOS" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Suma de FACTURACION" fld="11" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10901,7 +10552,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K10" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10911,7 +10562,7 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11018,7 +10669,7 @@
         <f>H6/GETPIVOTDATA("Suma de COMPRA total",$F$3)</f>
         <v>0.18152387093307543</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="8">
         <f>I6/GETPIVOTDATA("Suma de COMPRA total",$F$3)</f>
         <v>0.37426452808898203</v>
       </c>
@@ -11095,13 +10746,17 @@
   <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:N159"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
@@ -11145,7 +10800,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>2126</v>
       </c>
       <c r="B2" t="s">
@@ -11180,7 +10835,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2037</v>
       </c>
       <c r="B3" t="s">
@@ -11216,7 +10871,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>2037</v>
       </c>
       <c r="B4" t="s">
@@ -11252,7 +10907,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>2037</v>
       </c>
       <c r="B5" t="s">
@@ -11288,7 +10943,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>2037</v>
       </c>
       <c r="B6" t="s">
@@ -11324,7 +10979,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>2037</v>
       </c>
       <c r="B7" t="s">
@@ -11360,7 +11015,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2037</v>
       </c>
       <c r="B8" t="s">
@@ -11396,7 +11051,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>2502</v>
       </c>
       <c r="B9" t="s">
@@ -11432,7 +11087,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>2502</v>
       </c>
       <c r="B10" t="s">
@@ -11468,7 +11123,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B11" t="s">
@@ -11504,7 +11159,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B12" t="s">
@@ -11540,7 +11195,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B13" t="s">
@@ -11576,7 +11231,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>421</v>
       </c>
       <c r="B14" t="s">
@@ -11612,7 +11267,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>426</v>
       </c>
       <c r="B15" t="s">
@@ -11648,7 +11303,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>426</v>
       </c>
       <c r="B16" t="s">
@@ -11684,7 +11339,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>426</v>
       </c>
       <c r="B17" t="s">
@@ -11720,7 +11375,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>426</v>
       </c>
       <c r="B18" t="s">
@@ -11742,7 +11397,7 @@
       <c r="J18">
         <v>405</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>465</v>
       </c>
       <c r="L18">
@@ -11756,7 +11411,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>2592</v>
       </c>
       <c r="B19" t="s">
@@ -11792,7 +11447,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>2592</v>
       </c>
       <c r="B20" t="s">
@@ -11828,7 +11483,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>2903</v>
       </c>
       <c r="B21" t="s">
@@ -11864,7 +11519,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>2903</v>
       </c>
       <c r="B22" t="s">
@@ -11900,7 +11555,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>2903</v>
       </c>
       <c r="B23" t="s">
@@ -11936,7 +11591,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>2903</v>
       </c>
       <c r="B24" t="s">
@@ -11972,7 +11627,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>2903</v>
       </c>
       <c r="B25" t="s">
@@ -12008,7 +11663,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>2903</v>
       </c>
       <c r="B26" t="s">
@@ -12044,7 +11699,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>438</v>
       </c>
       <c r="B27" t="s">
@@ -12080,7 +11735,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>438</v>
       </c>
       <c r="B28" t="s">
@@ -12116,7 +11771,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>438</v>
       </c>
       <c r="B29" t="s">
@@ -12152,7 +11807,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>3019</v>
       </c>
       <c r="B30" t="s">
@@ -12188,7 +11843,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>3019</v>
       </c>
       <c r="B31" t="s">
@@ -12224,7 +11879,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>3027</v>
       </c>
       <c r="B32" t="s">
@@ -12260,7 +11915,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>3027</v>
       </c>
       <c r="B33" t="s">
@@ -12296,7 +11951,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>3027</v>
       </c>
       <c r="B34" t="s">
@@ -12332,7 +11987,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>3027</v>
       </c>
       <c r="B35" t="s">
@@ -12368,7 +12023,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>3048</v>
       </c>
       <c r="B36" t="s">
@@ -12404,7 +12059,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>3048</v>
       </c>
       <c r="B37" t="s">
@@ -12440,7 +12095,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B38" t="s">
@@ -12476,7 +12131,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B39" t="s">
@@ -12512,7 +12167,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B40" t="s">
@@ -12548,7 +12203,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>453</v>
       </c>
       <c r="B41" t="s">
@@ -12584,7 +12239,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>453</v>
       </c>
       <c r="B42" t="s">
@@ -12620,7 +12275,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>453</v>
       </c>
       <c r="B43" t="s">
@@ -12656,7 +12311,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="6" t="s">
         <v>457</v>
       </c>
       <c r="B44" t="s">
@@ -12692,7 +12347,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>457</v>
       </c>
       <c r="B45" t="s">
@@ -12728,7 +12383,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="6" t="s">
         <v>457</v>
       </c>
       <c r="B46" t="s">
@@ -12764,7 +12419,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="6" t="s">
         <v>461</v>
       </c>
       <c r="B47" t="s">
@@ -12800,7 +12455,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>461</v>
       </c>
       <c r="B48" t="s">
@@ -12836,7 +12491,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>464</v>
       </c>
       <c r="B49" t="s">
@@ -12872,7 +12527,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>464</v>
       </c>
       <c r="B50" t="s">
@@ -12908,7 +12563,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="6" t="s">
         <v>464</v>
       </c>
       <c r="B51" t="s">
@@ -12944,7 +12599,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="6" t="s">
         <v>468</v>
       </c>
       <c r="B52" t="s">
@@ -12980,7 +12635,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>468</v>
       </c>
       <c r="B53" t="s">
@@ -13016,7 +12671,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B54" t="s">
@@ -13052,7 +12707,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B55" t="s">
@@ -13088,7 +12743,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B56" t="s">
@@ -13124,7 +12779,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B57" t="s">
@@ -13160,7 +12815,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B58" t="s">
@@ -13196,7 +12851,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B59" t="s">
@@ -13232,7 +12887,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B60" t="s">
@@ -13268,7 +12923,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="6" t="s">
         <v>478</v>
       </c>
       <c r="B61" t="s">
@@ -13304,7 +12959,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="6" t="s">
         <v>478</v>
       </c>
       <c r="B62" t="s">
@@ -13340,7 +12995,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="6" t="s">
         <v>478</v>
       </c>
       <c r="B63" t="s">
@@ -13376,7 +13031,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="6" t="s">
         <v>482</v>
       </c>
       <c r="B64" t="s">
@@ -13412,7 +13067,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="6" t="s">
         <v>482</v>
       </c>
       <c r="B65" t="s">
@@ -13448,7 +13103,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="6">
         <v>3765</v>
       </c>
       <c r="B66" t="s">
@@ -13484,7 +13139,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="6" t="s">
         <v>486</v>
       </c>
       <c r="B67" t="s">
@@ -13520,7 +13175,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="6" t="s">
         <v>486</v>
       </c>
       <c r="B68" t="s">
@@ -13556,7 +13211,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="6" t="s">
         <v>486</v>
       </c>
       <c r="B69" t="s">
@@ -13592,7 +13247,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="6" t="s">
         <v>490</v>
       </c>
       <c r="B70" t="s">
@@ -13628,7 +13283,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="6" t="s">
         <v>490</v>
       </c>
       <c r="B71" t="s">
@@ -13664,7 +13319,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="6" t="s">
         <v>493</v>
       </c>
       <c r="B72" t="s">
@@ -13700,7 +13355,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="6" t="s">
         <v>493</v>
       </c>
       <c r="B73" t="s">
@@ -13736,7 +13391,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="6" t="s">
         <v>493</v>
       </c>
       <c r="B74" t="s">
@@ -13772,7 +13427,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B75" t="s">
@@ -13808,7 +13463,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B76" t="s">
@@ -13844,7 +13499,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B77" t="s">
@@ -13880,7 +13535,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B78" t="s">
@@ -13916,7 +13571,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="6" t="s">
         <v>500</v>
       </c>
       <c r="B79" t="s">
@@ -13952,7 +13607,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="6" t="s">
         <v>500</v>
       </c>
       <c r="B80" t="s">
@@ -13988,7 +13643,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="6" t="s">
         <v>500</v>
       </c>
       <c r="B81" t="s">
@@ -14024,7 +13679,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="6" t="s">
         <v>504</v>
       </c>
       <c r="B82" t="s">
@@ -14060,7 +13715,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="6" t="s">
         <v>504</v>
       </c>
       <c r="B83" t="s">
@@ -14096,7 +13751,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="6">
         <v>5823</v>
       </c>
       <c r="B84" t="s">
@@ -14132,7 +13787,7 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="6">
         <v>5823</v>
       </c>
       <c r="B85" t="s">
@@ -14168,7 +13823,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="6">
         <v>5826</v>
       </c>
       <c r="B86" t="s">
@@ -14204,7 +13859,7 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="6">
         <v>5826</v>
       </c>
       <c r="B87" t="s">
@@ -14240,7 +13895,7 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="6">
         <v>5826</v>
       </c>
       <c r="B88" t="s">
@@ -14276,7 +13931,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="6">
         <v>5834</v>
       </c>
       <c r="B89" t="s">
@@ -14312,7 +13967,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="6">
         <v>5834</v>
       </c>
       <c r="B90" t="s">
@@ -14348,7 +14003,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="6">
         <v>5835</v>
       </c>
       <c r="B91" t="s">
@@ -14384,7 +14039,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="6">
         <v>5835</v>
       </c>
       <c r="B92" t="s">
@@ -14420,7 +14075,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="6">
         <v>5841</v>
       </c>
       <c r="B93" t="s">
@@ -14459,7 +14114,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="6">
         <v>5841</v>
       </c>
       <c r="B94" t="s">
@@ -14498,7 +14153,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="6">
         <v>5841</v>
       </c>
       <c r="B95" t="s">
@@ -14537,7 +14192,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="6">
         <v>5844</v>
       </c>
       <c r="B96" t="s">
@@ -14576,7 +14231,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="6">
         <v>5844</v>
       </c>
       <c r="B97" t="s">
@@ -14615,7 +14270,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="6">
         <v>5844</v>
       </c>
       <c r="B98" t="s">
@@ -14654,7 +14309,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="6" t="s">
         <v>522</v>
       </c>
       <c r="B99" t="s">
@@ -14690,7 +14345,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="6" t="s">
         <v>522</v>
       </c>
       <c r="B100" t="s">
@@ -14726,7 +14381,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="6">
         <v>5852</v>
       </c>
       <c r="B101" t="s">
@@ -14765,7 +14420,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="6">
         <v>5852</v>
       </c>
       <c r="B102" t="s">
@@ -14804,7 +14459,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="6">
         <v>5852</v>
       </c>
       <c r="B103" t="s">
@@ -14843,7 +14498,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="6" t="s">
         <v>528</v>
       </c>
       <c r="B104" t="s">
@@ -14879,7 +14534,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="6" t="s">
         <v>528</v>
       </c>
       <c r="B105" t="s">
@@ -14915,7 +14570,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="6">
         <v>5873</v>
       </c>
       <c r="B106" t="s">
@@ -14954,7 +14609,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="6">
         <v>5873</v>
       </c>
       <c r="B107" t="s">
@@ -14993,7 +14648,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="6">
         <v>5873</v>
       </c>
       <c r="B108" t="s">
@@ -15032,7 +14687,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="6" t="s">
         <v>534</v>
       </c>
       <c r="B109" t="s">
@@ -15068,7 +14723,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="6" t="s">
         <v>534</v>
       </c>
       <c r="B110" t="s">
@@ -15104,7 +14759,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="6" t="s">
         <v>534</v>
       </c>
       <c r="B111" t="s">
@@ -15140,7 +14795,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B112" t="s">
@@ -15176,7 +14831,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B113" t="s">
@@ -15212,7 +14867,7 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B114" t="s">
@@ -15248,7 +14903,7 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="6" t="s">
         <v>347</v>
       </c>
       <c r="B115" t="s">
@@ -15284,7 +14939,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="6" t="s">
         <v>347</v>
       </c>
       <c r="B116" t="s">
@@ -15320,7 +14975,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="6" t="s">
         <v>347</v>
       </c>
       <c r="B117" t="s">
@@ -15356,7 +15011,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B118" t="s">
@@ -15392,7 +15047,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B119" t="s">
@@ -15428,7 +15083,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="6" t="s">
         <v>548</v>
       </c>
       <c r="B120" t="s">
@@ -15464,7 +15119,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="6" t="s">
         <v>550</v>
       </c>
       <c r="B121" t="s">
@@ -15500,7 +15155,7 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="6" t="s">
         <v>550</v>
       </c>
       <c r="B122" t="s">
@@ -15536,7 +15191,7 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="6" t="s">
         <v>553</v>
       </c>
       <c r="B123" t="s">
@@ -15572,7 +15227,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="6" t="s">
         <v>553</v>
       </c>
       <c r="B124" t="s">
@@ -15608,7 +15263,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="6">
         <v>9530</v>
       </c>
       <c r="B125" t="s">
@@ -15644,7 +15299,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="6">
         <v>9541</v>
       </c>
       <c r="B126" t="s">
@@ -15680,7 +15335,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="6">
         <v>9601</v>
       </c>
       <c r="B127" t="s">
@@ -15716,7 +15371,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="6">
         <v>9601</v>
       </c>
       <c r="B128" t="s">
@@ -15752,7 +15407,7 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="6">
         <v>9805</v>
       </c>
       <c r="B129" t="s">
@@ -15791,7 +15446,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="6">
         <v>9805</v>
       </c>
       <c r="B130" t="s">
@@ -15830,7 +15485,7 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="6" t="s">
         <v>562</v>
       </c>
       <c r="B131" t="s">
@@ -15869,7 +15524,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="6" t="s">
         <v>562</v>
       </c>
       <c r="B132" t="s">
@@ -15908,7 +15563,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="6" t="s">
         <v>562</v>
       </c>
       <c r="B133" t="s">
@@ -15947,7 +15602,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B134" t="s">
@@ -15983,7 +15638,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B135" t="s">
@@ -16019,7 +15674,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B136" t="s">
@@ -16055,7 +15710,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="6" t="s">
         <v>370</v>
       </c>
       <c r="B137" t="s">
@@ -16091,7 +15746,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="6">
         <v>9881</v>
       </c>
       <c r="B138" t="s">
@@ -16127,7 +15782,7 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="6">
         <v>9881</v>
       </c>
       <c r="B139" t="s">
@@ -16163,7 +15818,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="6">
         <v>9881</v>
       </c>
       <c r="B140" t="s">
@@ -16199,7 +15854,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="6">
         <v>9883</v>
       </c>
       <c r="B141" t="s">
@@ -16238,7 +15893,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="6">
         <v>9883</v>
       </c>
       <c r="B142" t="s">
@@ -16277,7 +15932,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="6">
         <v>9883</v>
       </c>
       <c r="B143" t="s">
@@ -16316,7 +15971,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B144" t="s">
@@ -16352,7 +16007,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B145" t="s">
@@ -16388,7 +16043,7 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B146" t="s">
@@ -16424,7 +16079,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B147" t="s">
@@ -16460,7 +16115,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B148" t="s">
@@ -16496,7 +16151,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B149" t="s">
@@ -16532,7 +16187,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B150" t="s">
@@ -16568,7 +16223,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="6" t="s">
         <v>402</v>
       </c>
       <c r="B151" t="s">
@@ -16604,7 +16259,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B152" t="s">
@@ -16640,7 +16295,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B153" t="s">
@@ -16676,7 +16331,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B154" t="s">
@@ -16712,7 +16367,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B155" t="s">
@@ -16748,7 +16403,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="6" t="s">
         <v>583</v>
       </c>
       <c r="B156" t="s">
@@ -16784,7 +16439,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="6" t="s">
         <v>583</v>
       </c>
       <c r="B157" t="s">
@@ -16820,7 +16475,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="6" t="s">
         <v>587</v>
       </c>
       <c r="B158" t="s">
@@ -16856,7 +16511,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="6" t="s">
         <v>587</v>
       </c>
       <c r="B159" t="s">
